--- a/Codemig/System/Optimization_results_15Hz.xlsx
+++ b/Codemig/System/Optimization_results_15Hz.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,1919 +348,1493 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1">
-        <v>725</v>
+        <v>770</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G1">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1">
         <v>40</v>
       </c>
       <c r="J1">
-        <v>551.4653949830719</v>
+        <v>682.4862712685236</v>
       </c>
       <c r="K1">
-        <v>540.1317885830719</v>
+        <v>663.4588472685236</v>
       </c>
       <c r="L1">
-        <v>10.112256</v>
+        <v>16.97696</v>
       </c>
       <c r="M1">
-        <v>1.2213504</v>
+        <v>2.050464</v>
       </c>
       <c r="N1">
-        <v>980.8026199639036</v>
+        <v>1505.932538570215</v>
       </c>
       <c r="O1">
-        <v>17.28017051945847</v>
+        <v>13.63514852604961</v>
       </c>
       <c r="P1">
-        <v>177.8362632036913</v>
+        <v>127.2734921791044</v>
       </c>
       <c r="Q1">
-        <v>11.28445510772785</v>
+        <v>16.76129120083438</v>
       </c>
       <c r="R1">
-        <v>154.7274173717979</v>
+        <v>237.759548927212</v>
       </c>
       <c r="S1">
-        <v>254.0985660945555</v>
+        <v>555.3794371033161</v>
       </c>
       <c r="T1">
-        <v>237.403988633532</v>
+        <v>426.8914900518063</v>
       </c>
       <c r="U1">
-        <v>155.8475242559013</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V1">
-        <v>201.8242036969313</v>
+        <v>195.5512818788083</v>
       </c>
       <c r="W1">
-        <v>446.689554720126</v>
+        <v>388.4863325963186</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>40</v>
       </c>
       <c r="J2">
-        <v>557.9663046782241</v>
+        <v>695.1728083523632</v>
       </c>
       <c r="K2">
-        <v>546.6326982782241</v>
+        <v>676.1453843523631</v>
       </c>
       <c r="L2">
-        <v>10.112256</v>
+        <v>16.97696</v>
       </c>
       <c r="M2">
-        <v>1.2213504</v>
+        <v>2.050464</v>
       </c>
       <c r="N2">
-        <v>933.5534280146857</v>
+        <v>1408.515993209328</v>
       </c>
       <c r="O2">
-        <v>14.967972274319</v>
+        <v>11.45764465387493</v>
       </c>
       <c r="P2">
-        <v>172.092956824051</v>
+        <v>128.281979126741</v>
       </c>
       <c r="Q2">
-        <v>10.36672586125761</v>
+        <v>13.6978030881818</v>
       </c>
       <c r="R2">
-        <v>153.7925799317945</v>
+        <v>233.9204548740376</v>
       </c>
       <c r="S2">
-        <v>232.727777484723</v>
+        <v>531.7234706182903</v>
       </c>
       <c r="T2">
-        <v>221.4551945711637</v>
+        <v>361.2685372949424</v>
       </c>
       <c r="U2">
-        <v>155.8475242559013</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V2">
-        <v>201.8242036969313</v>
+        <v>195.5512818788083</v>
       </c>
       <c r="W2">
-        <v>440.8925398583646</v>
+        <v>384.8500658798995</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>760</v>
+        <v>635</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>40</v>
       </c>
       <c r="J3">
-        <v>535.0250820982913</v>
+        <v>722.4726164888374</v>
       </c>
       <c r="K3">
-        <v>524.0394372982913</v>
+        <v>703.4451924888373</v>
       </c>
       <c r="L3">
-        <v>9.801792000000001</v>
+        <v>16.97696</v>
       </c>
       <c r="M3">
-        <v>1.1838528</v>
+        <v>2.050464</v>
       </c>
       <c r="N3">
-        <v>1135.112949672945</v>
+        <v>1278.663708133516</v>
       </c>
       <c r="O3">
-        <v>19.52325920570749</v>
+        <v>8.123844155057776</v>
       </c>
       <c r="P3">
-        <v>176.7670184227252</v>
+        <v>128.9506452134701</v>
       </c>
       <c r="Q3">
-        <v>13.39108808129742</v>
+        <v>9.344969465427802</v>
       </c>
       <c r="R3">
-        <v>159.4727429095911</v>
+        <v>225.9063450493464</v>
       </c>
       <c r="S3">
-        <v>358.1562823592493</v>
+        <v>513.883373704472</v>
       </c>
       <c r="T3">
-        <v>279.5854595935112</v>
+        <v>264.360786738972</v>
       </c>
       <c r="U3">
-        <v>140.7655057795237</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V3">
-        <v>189.44425933701</v>
+        <v>195.5512818788083</v>
       </c>
       <c r="W3">
-        <v>439.5093772904301</v>
+        <v>400.0481683555929</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>730</v>
+        <v>620</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>40</v>
       </c>
       <c r="J4">
-        <v>541.3435692068425</v>
+        <v>735.9588510374494</v>
       </c>
       <c r="K4">
-        <v>530.3579244068426</v>
+        <v>716.9314270374493</v>
       </c>
       <c r="L4">
-        <v>9.801792000000001</v>
+        <v>16.97696</v>
       </c>
       <c r="M4">
-        <v>1.1838528</v>
+        <v>2.050464</v>
       </c>
       <c r="N4">
-        <v>1052.31647498178</v>
+        <v>1255.896354938439</v>
       </c>
       <c r="O4">
-        <v>17.59518854045422</v>
+        <v>7.65788732655901</v>
       </c>
       <c r="P4">
-        <v>177.7226639738969</v>
+        <v>129.6499109082069</v>
       </c>
       <c r="Q4">
-        <v>11.77336731742337</v>
+        <v>8.789502581137135</v>
       </c>
       <c r="R4">
-        <v>157.337389194441</v>
+        <v>226.6262659628798</v>
       </c>
       <c r="S4">
-        <v>306.7614614840379</v>
+        <v>505.9803472537874</v>
       </c>
       <c r="T4">
-        <v>252.9487986667771</v>
+        <v>249.1077818813532</v>
       </c>
       <c r="U4">
-        <v>140.7655057795237</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V4">
-        <v>189.44425933701</v>
+        <v>195.5512818788083</v>
       </c>
       <c r="W4">
-        <v>433.8055448074154</v>
+        <v>396.3036818254388</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>40</v>
       </c>
       <c r="J5">
-        <v>548.3070612939788</v>
+        <v>708.8044350412777</v>
       </c>
       <c r="K5">
-        <v>537.3214164939789</v>
+        <v>689.9565150412776</v>
       </c>
       <c r="L5">
-        <v>9.801792000000001</v>
+        <v>16.8168</v>
       </c>
       <c r="M5">
-        <v>1.1838528</v>
+        <v>2.03112</v>
       </c>
       <c r="N5">
-        <v>999.4944842047571</v>
+        <v>1331.12928823368</v>
       </c>
       <c r="O5">
-        <v>16.37708938787042</v>
+        <v>9.163843727163977</v>
       </c>
       <c r="P5">
-        <v>178.3764694650349</v>
+        <v>128.3173080318785</v>
       </c>
       <c r="Q5">
-        <v>10.78504492283827</v>
+        <v>10.62543518262186</v>
       </c>
       <c r="R5">
-        <v>156.0076312044648</v>
+        <v>226.4608825644924</v>
       </c>
       <c r="S5">
-        <v>273.7232097646713</v>
+        <v>527.733185685615</v>
       </c>
       <c r="T5">
-        <v>236.0696987395138</v>
+        <v>300.7138162665714</v>
       </c>
       <c r="U5">
-        <v>140.7655057795237</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V5">
-        <v>189.44425933701</v>
+        <v>189.8597700803963</v>
       </c>
       <c r="W5">
-        <v>428.7077558642758</v>
+        <v>403.997940506649</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>825</v>
+        <v>640</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>40</v>
       </c>
       <c r="J6">
-        <v>529.4323758962926</v>
+        <v>721.4452175307497</v>
       </c>
       <c r="K6">
-        <v>517.8005166962926</v>
+        <v>702.5972975307496</v>
       </c>
       <c r="L6">
-        <v>10.378368</v>
+        <v>16.8168</v>
       </c>
       <c r="M6">
-        <v>1.2534912</v>
+        <v>2.03112</v>
       </c>
       <c r="N6">
-        <v>1298.737686696767</v>
+        <v>1289.702702171598</v>
       </c>
       <c r="O6">
-        <v>24.24906008906708</v>
+        <v>8.303251032572245</v>
       </c>
       <c r="P6">
-        <v>175.5425329955239</v>
+        <v>128.9979234093013</v>
       </c>
       <c r="Q6">
-        <v>16.27097098494708</v>
+        <v>9.578201174498162</v>
       </c>
       <c r="R6">
-        <v>197.4530524881137</v>
+        <v>226.5524158661089</v>
       </c>
       <c r="S6">
-        <v>441.9457224779172</v>
+        <v>514.784211077752</v>
       </c>
       <c r="T6">
-        <v>314.9406080007302</v>
+        <v>273.3897244557995</v>
       </c>
       <c r="U6">
-        <v>148.3065150177125</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V6">
-        <v>197.1188876036005</v>
+        <v>189.8597700803963</v>
       </c>
       <c r="W6">
-        <v>437.6714749554138</v>
+        <v>399.7475058278905</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <v>780</v>
+        <v>620</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>40</v>
       </c>
       <c r="J7">
-        <v>535.6215509331747</v>
+        <v>734.9182993147339</v>
       </c>
       <c r="K7">
-        <v>523.9896917331747</v>
+        <v>716.0703793147338</v>
       </c>
       <c r="L7">
-        <v>10.378368</v>
+        <v>16.8168</v>
       </c>
       <c r="M7">
-        <v>1.2534912</v>
+        <v>2.03112</v>
       </c>
       <c r="N7">
-        <v>1132.958205377589</v>
+        <v>1257.33875983996</v>
       </c>
       <c r="O7">
-        <v>20.92096966021068</v>
+        <v>7.639723473339675</v>
       </c>
       <c r="P7">
-        <v>176.4633697575101</v>
+        <v>129.3820537314083</v>
       </c>
       <c r="Q7">
-        <v>14.29841748707914</v>
+        <v>8.784261324514503</v>
       </c>
       <c r="R7">
-        <v>158.8741980519343</v>
+        <v>226.5101720671694</v>
       </c>
       <c r="S7">
-        <v>360.2030258828231</v>
+        <v>504.2964944350733</v>
       </c>
       <c r="T7">
-        <v>273.9500145029816</v>
+        <v>252.6413957839391</v>
       </c>
       <c r="U7">
-        <v>148.3065150177125</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V7">
-        <v>197.1188876036005</v>
+        <v>189.8597700803963</v>
       </c>
       <c r="W7">
-        <v>431.9914942661962</v>
+        <v>396.0058335258074</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="B8">
         <v>0.25</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>40</v>
       </c>
       <c r="J8">
-        <v>559.4433132185117</v>
+        <v>681.8985793070382</v>
       </c>
       <c r="K8">
-        <v>547.8114540185117</v>
+        <v>661.9197841070381</v>
       </c>
       <c r="L8">
-        <v>10.378368</v>
+        <v>17.825808</v>
       </c>
       <c r="M8">
-        <v>1.2534912</v>
+        <v>2.1529872</v>
       </c>
       <c r="N8">
-        <v>886.1424062427466</v>
+        <v>1530.0186769854</v>
       </c>
       <c r="O8">
-        <v>14.68986576865619</v>
+        <v>15.31155565292883</v>
       </c>
       <c r="P8">
-        <v>172.2039115150182</v>
+        <v>126.6781647780242</v>
       </c>
       <c r="Q8">
-        <v>10.00871574976442</v>
+        <v>19.35697764898257</v>
       </c>
       <c r="R8">
-        <v>152.1043747983828</v>
+        <v>242.4871330881222</v>
       </c>
       <c r="S8">
-        <v>199.6571857375721</v>
+        <v>554.4636383860563</v>
       </c>
       <c r="T8">
-        <v>209.333084584558</v>
+        <v>443.427695579624</v>
       </c>
       <c r="U8">
-        <v>148.3065150177125</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V8">
-        <v>197.1188876036005</v>
+        <v>197.5330185878981</v>
       </c>
       <c r="W8">
-        <v>450.3235557503334</v>
+        <v>381.7065078276957</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="B9">
         <v>0.25</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>40</v>
       </c>
       <c r="J9">
-        <v>578.3224299223174</v>
+        <v>723.6117213897429</v>
       </c>
       <c r="K9">
-        <v>565.3981419223173</v>
+        <v>703.632926189743</v>
       </c>
       <c r="L9">
-        <v>11.53152</v>
+        <v>17.825808</v>
       </c>
       <c r="M9">
-        <v>1.392768</v>
+        <v>2.1529872</v>
       </c>
       <c r="N9">
-        <v>847.8231900698487</v>
+        <v>1271.248994488395</v>
       </c>
       <c r="O9">
-        <v>14.77465165187232</v>
+        <v>8.633699728767462</v>
       </c>
       <c r="P9">
-        <v>173.101315012732</v>
+        <v>128.6247835945168</v>
       </c>
       <c r="Q9">
-        <v>10.98396443978401</v>
+        <v>10.11559841140039</v>
       </c>
       <c r="R9">
-        <v>146.2726032446539</v>
+        <v>228.9852876426488</v>
       </c>
       <c r="S9">
-        <v>195.5498344020388</v>
+        <v>506.2203928003267</v>
       </c>
       <c r="T9">
-        <v>178.9955532299728</v>
+        <v>260.5654688429044</v>
       </c>
       <c r="U9">
-        <v>163.3885334940901</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V9">
-        <v>212.471220524641</v>
+        <v>197.5330185878981</v>
       </c>
       <c r="W9">
-        <v>459.1806355771309</v>
+        <v>393.5019080660541</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="B10">
         <v>0.25</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>40</v>
       </c>
       <c r="J10">
-        <v>611.2277149913164</v>
+        <v>739.0289283635755</v>
       </c>
       <c r="K10">
-        <v>598.3034269913163</v>
+        <v>719.0501331635754</v>
       </c>
       <c r="L10">
-        <v>11.53152</v>
+        <v>17.825808</v>
       </c>
       <c r="M10">
-        <v>1.392768</v>
+        <v>2.1529872</v>
       </c>
       <c r="N10">
-        <v>842.8641044621712</v>
+        <v>1244.974394497953</v>
       </c>
       <c r="O10">
-        <v>15.70689661445089</v>
+        <v>7.642997250603369</v>
       </c>
       <c r="P10">
-        <v>182.9685223638842</v>
+        <v>129.4303311935047</v>
       </c>
       <c r="Q10">
-        <v>10.45088214560519</v>
+        <v>8.702136831605582</v>
       </c>
       <c r="R10">
-        <v>156.7989604838655</v>
+        <v>224.6911135853039</v>
       </c>
       <c r="S10">
-        <v>169.7980215355978</v>
+        <v>514.7370474508219</v>
       </c>
       <c r="T10">
-        <v>178.9955532299728</v>
+        <v>231.6861091615977</v>
       </c>
       <c r="U10">
-        <v>163.3885334940901</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V10">
-        <v>212.471220524641</v>
+        <v>197.5330185878981</v>
       </c>
       <c r="W10">
-        <v>472.4544969851109</v>
+        <v>413.3909379453979</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B11">
         <v>0.25</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G11">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>40</v>
       </c>
       <c r="J11">
-        <v>604.1007848603348</v>
+        <v>752.162056726694</v>
       </c>
       <c r="K11">
-        <v>590.5302824603349</v>
+        <v>732.183261526694</v>
       </c>
       <c r="L11">
-        <v>12.108096</v>
+        <v>17.825808</v>
       </c>
       <c r="M11">
-        <v>1.4624064</v>
+        <v>2.1529872</v>
       </c>
       <c r="N11">
-        <v>846.6881053784638</v>
+        <v>1216.03829362852</v>
       </c>
       <c r="O11">
-        <v>15.18068490476211</v>
+        <v>7.026860840004133</v>
       </c>
       <c r="P11">
-        <v>177.3989132391089</v>
+        <v>130.0463235936911</v>
       </c>
       <c r="Q11">
-        <v>10.15414546944247</v>
+        <v>7.991307316843322</v>
       </c>
       <c r="R11">
-        <v>153.6484366869985</v>
+        <v>225.4405537527761</v>
       </c>
       <c r="S11">
-        <v>195.6833877050436</v>
+        <v>503.9100448850454</v>
       </c>
       <c r="T11">
-        <v>166.4772692843134</v>
+        <v>213.549355291034</v>
       </c>
       <c r="U11">
-        <v>170.9295427322788</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V11">
-        <v>220.1487094668875</v>
+        <v>197.5330185878981</v>
       </c>
       <c r="W11">
-        <v>470.135091013509</v>
+        <v>409.0416801835289</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="B12">
         <v>0.25</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>40</v>
       </c>
       <c r="J12">
-        <v>638.5312499666483</v>
+        <v>738.9674441810233</v>
       </c>
       <c r="K12">
-        <v>624.9607475666483</v>
+        <v>719.2220041810233</v>
       </c>
       <c r="L12">
-        <v>12.108096</v>
+        <v>17.6176</v>
       </c>
       <c r="M12">
-        <v>1.4624064</v>
+        <v>2.12784</v>
       </c>
       <c r="N12">
-        <v>835.5331244948602</v>
+        <v>1255.184015809635</v>
       </c>
       <c r="O12">
-        <v>16.12467143028989</v>
+        <v>7.811994826466557</v>
       </c>
       <c r="P12">
-        <v>187.3903974068674</v>
+        <v>129.423541874953</v>
       </c>
       <c r="Q12">
-        <v>10.67075031150936</v>
+        <v>8.914624956071272</v>
       </c>
       <c r="R12">
-        <v>159.1333530429933</v>
+        <v>225.1335505776604</v>
       </c>
       <c r="S12">
-        <v>167.5914149300921</v>
+        <v>515.2910152750652</v>
       </c>
       <c r="T12">
-        <v>166.4772692843134</v>
+        <v>240.5216992125969</v>
       </c>
       <c r="U12">
-        <v>170.9295427322788</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V12">
-        <v>220.1487094668875</v>
+        <v>191.8425364201466</v>
       </c>
       <c r="W12">
-        <v>483.7256206605135</v>
+        <v>413.3591074854984</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>730</v>
+        <v>605</v>
       </c>
       <c r="B13">
         <v>0.25</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>40</v>
       </c>
       <c r="J13">
-        <v>546.2756930390742</v>
+        <v>752.1097474184047</v>
       </c>
       <c r="K13">
-        <v>535.1409218390743</v>
+        <v>732.3643074184047</v>
       </c>
       <c r="L13">
-        <v>9.934848000000001</v>
+        <v>17.6176</v>
       </c>
       <c r="M13">
-        <v>1.1999232</v>
+        <v>2.12784</v>
       </c>
       <c r="N13">
-        <v>1026.71929117743</v>
+        <v>1225.82656171995</v>
       </c>
       <c r="O13">
-        <v>17.60354948708169</v>
+        <v>7.190832474264266</v>
       </c>
       <c r="P13">
-        <v>177.7952261408286</v>
+        <v>130.0938674488167</v>
       </c>
       <c r="Q13">
-        <v>11.67310102221858</v>
+        <v>8.192624164353603</v>
       </c>
       <c r="R13">
-        <v>156.3878321284765</v>
+        <v>225.8929696373914</v>
       </c>
       <c r="S13">
-        <v>287.1508895237536</v>
+        <v>504.5395693225011</v>
       </c>
       <c r="T13">
-        <v>247.9310870703215</v>
+        <v>221.8402784103523</v>
       </c>
       <c r="U13">
-        <v>133.224496541335</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V13">
-        <v>184.7449909878156</v>
+        <v>191.8425364201466</v>
       </c>
       <c r="W13">
-        <v>444.5280061124161</v>
+        <v>409.0101846097192</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>705</v>
+        <v>880</v>
       </c>
       <c r="B14">
         <v>0.25</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>40</v>
       </c>
       <c r="J14">
-        <v>552.7167680442867</v>
+        <v>673.7009970689527</v>
       </c>
       <c r="K14">
-        <v>541.5819968442868</v>
+        <v>652.7708306689526</v>
       </c>
       <c r="L14">
-        <v>9.934848000000001</v>
+        <v>18.674656</v>
       </c>
       <c r="M14">
-        <v>1.1999232</v>
+        <v>2.2555104</v>
       </c>
       <c r="N14">
-        <v>957.7621165229799</v>
+        <v>1656.483181716256</v>
       </c>
       <c r="O14">
-        <v>14.97731410866997</v>
+        <v>19.35021231495238</v>
       </c>
       <c r="P14">
-        <v>172.1899276733556</v>
+        <v>125.6448982351002</v>
       </c>
       <c r="Q14">
-        <v>10.46246269580959</v>
+        <v>24.93173505762941</v>
       </c>
       <c r="R14">
-        <v>154.7895282422649</v>
+        <v>244.5643020441118</v>
       </c>
       <c r="S14">
-        <v>249.8355741983921</v>
+        <v>597.1173399330096</v>
       </c>
       <c r="T14">
-        <v>227.3570885371107</v>
+        <v>516.38776930305</v>
       </c>
       <c r="U14">
-        <v>133.224496541335</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V14">
-        <v>184.7449909878156</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W14">
-        <v>438.7590432372546</v>
+        <v>402.8807812428904</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B15">
         <v>0.25</v>
       </c>
       <c r="C15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>40</v>
       </c>
       <c r="J15">
-        <v>539.1505498038219</v>
+        <v>684.6986244738654</v>
       </c>
       <c r="K15">
-        <v>527.3198554038219</v>
+        <v>663.7684580738653</v>
       </c>
       <c r="L15">
-        <v>10.555776</v>
+        <v>18.674656</v>
       </c>
       <c r="M15">
-        <v>1.2749184</v>
+        <v>2.2555104</v>
       </c>
       <c r="N15">
-        <v>1070.089766131059</v>
+        <v>1421.136359607782</v>
       </c>
       <c r="O15">
-        <v>20.20616056574885</v>
+        <v>13.19454691677771</v>
       </c>
       <c r="P15">
-        <v>176.5515611048939</v>
+        <v>127.5760564210051</v>
       </c>
       <c r="Q15">
-        <v>13.53774080872975</v>
+        <v>15.9242790979228</v>
       </c>
       <c r="R15">
-        <v>156.694303479454</v>
+        <v>234.5776297114741</v>
       </c>
       <c r="S15">
-        <v>316.1648521848434</v>
+        <v>542.9771100354576</v>
       </c>
       <c r="T15">
-        <v>258.7030174054962</v>
+        <v>358.6696383242818</v>
       </c>
       <c r="U15">
-        <v>140.7655057795237</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V15">
-        <v>192.4173813827594</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W15">
-        <v>442.0822219049219</v>
+        <v>398.0776314873768</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="B16">
         <v>0.25</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>40</v>
       </c>
       <c r="J16">
-        <v>545.4395703581189</v>
+        <v>696.7075042052238</v>
       </c>
       <c r="K16">
-        <v>533.6088759581188</v>
+        <v>675.7773378052236</v>
       </c>
       <c r="L16">
-        <v>10.555776</v>
+        <v>18.674656</v>
       </c>
       <c r="M16">
-        <v>1.2749184</v>
+        <v>2.2555104</v>
       </c>
       <c r="N16">
-        <v>1027.008905319867</v>
+        <v>1352.467692969863</v>
       </c>
       <c r="O16">
-        <v>18.92626378378667</v>
+        <v>11.44631346122267</v>
       </c>
       <c r="P16">
-        <v>177.5601564812708</v>
+        <v>128.1798560642507</v>
       </c>
       <c r="Q16">
-        <v>12.51209294203826</v>
+        <v>13.64847934339945</v>
       </c>
       <c r="R16">
-        <v>155.918012247558</v>
+        <v>233.193148646926</v>
       </c>
       <c r="S16">
-        <v>291.5701211421158</v>
+        <v>524.2738245387557</v>
       </c>
       <c r="T16">
-        <v>242.3192143155954</v>
+        <v>313.559967362049</v>
       </c>
       <c r="U16">
-        <v>140.7655057795237</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V16">
-        <v>192.4173813827594</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W16">
-        <v>436.3449997482297</v>
+        <v>393.8894839745701</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>840</v>
+        <v>695</v>
       </c>
       <c r="B17">
         <v>0.25</v>
       </c>
       <c r="C17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>40</v>
       </c>
       <c r="J17">
-        <v>530.9860983140705</v>
+        <v>709.5253947152203</v>
       </c>
       <c r="K17">
-        <v>518.4594807140705</v>
+        <v>688.5952283152203</v>
       </c>
       <c r="L17">
-        <v>11.176704</v>
+        <v>18.674656</v>
       </c>
       <c r="M17">
-        <v>1.3499136</v>
+        <v>2.2555104</v>
       </c>
       <c r="N17">
-        <v>1206.986472993393</v>
+        <v>1311.07677264021</v>
       </c>
       <c r="O17">
-        <v>25.45263469506176</v>
+        <v>10.29179566006572</v>
       </c>
       <c r="P17">
-        <v>175.3967943713518</v>
+        <v>127.8100155143616</v>
       </c>
       <c r="Q17">
-        <v>17.69313378659812</v>
+        <v>12.37624683730922</v>
       </c>
       <c r="R17">
-        <v>160.0974433485535</v>
+        <v>232.8716991434444</v>
       </c>
       <c r="S17">
-        <v>404.9519355453064</v>
+        <v>512.3985661157328</v>
       </c>
       <c r="T17">
-        <v>295.0230925416725</v>
+        <v>287.1879731989741</v>
       </c>
       <c r="U17">
-        <v>148.3065150177125</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V17">
-        <v>200.0910338200849</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W17">
-        <v>439.1863106476279</v>
+        <v>390.2026432794239</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>805</v>
+        <v>655</v>
       </c>
       <c r="B18">
         <v>0.25</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>40</v>
       </c>
       <c r="J18">
-        <v>537.1094532585428</v>
+        <v>726.5443971713114</v>
       </c>
       <c r="K18">
-        <v>524.5828356585428</v>
+        <v>705.6142307713114</v>
       </c>
       <c r="L18">
-        <v>11.176704</v>
+        <v>18.674656</v>
       </c>
       <c r="M18">
-        <v>1.3499136</v>
+        <v>2.2555104</v>
       </c>
       <c r="N18">
-        <v>1116.395887730372</v>
+        <v>1268.598869413906</v>
       </c>
       <c r="O18">
-        <v>22.77700043833658</v>
+        <v>8.826286167500243</v>
       </c>
       <c r="P18">
-        <v>176.2439277634055</v>
+        <v>128.7506137065909</v>
       </c>
       <c r="Q18">
-        <v>15.42159591014484</v>
+        <v>10.26040779221746</v>
       </c>
       <c r="R18">
-        <v>157.6983145285839</v>
+        <v>227.6832052210234</v>
       </c>
       <c r="S18">
-        <v>350.5582702144191</v>
+        <v>517.1330283968612</v>
       </c>
       <c r="T18">
-        <v>265.40326702382</v>
+        <v>247.8380002603956</v>
       </c>
       <c r="U18">
-        <v>148.3065150177125</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V18">
-        <v>200.0910338200849</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W18">
-        <v>433.4866708351375</v>
+        <v>410.3789281460414</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="B19">
         <v>0.25</v>
       </c>
       <c r="C19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19">
         <v>40</v>
       </c>
       <c r="J19">
-        <v>568.8589736056091</v>
+        <v>739.356985758072</v>
       </c>
       <c r="K19">
-        <v>556.3323560056091</v>
+        <v>718.426819358072</v>
       </c>
       <c r="L19">
-        <v>11.176704</v>
+        <v>18.674656</v>
       </c>
       <c r="M19">
-        <v>1.3499136</v>
+        <v>2.2555104</v>
       </c>
       <c r="N19">
-        <v>873.965472845547</v>
+        <v>1231.603910348529</v>
       </c>
       <c r="O19">
-        <v>14.76764938696868</v>
+        <v>7.966300971793032</v>
       </c>
       <c r="P19">
-        <v>173.0272005873338</v>
+        <v>129.1760106923279</v>
       </c>
       <c r="Q19">
-        <v>10.01007992337566</v>
+        <v>9.240145741493382</v>
       </c>
       <c r="R19">
-        <v>152.1188585537475</v>
+        <v>227.8972313021479</v>
       </c>
       <c r="S19">
-        <v>208.3920292268486</v>
+        <v>504.2490891392775</v>
       </c>
       <c r="T19">
-        <v>187.5043870784779</v>
+        <v>224.9845162495048</v>
       </c>
       <c r="U19">
-        <v>148.3065150177125</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V19">
-        <v>200.0910338200849</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W19">
-        <v>446.4837104723219</v>
+        <v>406.0613595331021</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>890</v>
+        <v>615</v>
       </c>
       <c r="B20">
         <v>0.25</v>
       </c>
       <c r="C20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>40</v>
       </c>
       <c r="J20">
-        <v>527.5982706592931</v>
+        <v>753.0273437361636</v>
       </c>
       <c r="K20">
-        <v>514.3757298592931</v>
+        <v>732.0971773361637</v>
       </c>
       <c r="L20">
-        <v>11.797632</v>
+        <v>18.674656</v>
       </c>
       <c r="M20">
-        <v>1.4249088</v>
+        <v>2.2555104</v>
       </c>
       <c r="N20">
-        <v>1332.522083635733</v>
+        <v>1211.08318180374</v>
       </c>
       <c r="O20">
-        <v>29.62342392453675</v>
+        <v>7.498359041126054</v>
       </c>
       <c r="P20">
-        <v>174.3638350881548</v>
+        <v>129.7689634914062</v>
       </c>
       <c r="Q20">
-        <v>19.94282025545211</v>
+        <v>8.690185840569603</v>
       </c>
       <c r="R20">
-        <v>196.8451968111929</v>
+        <v>228.7091834914701</v>
       </c>
       <c r="S20">
-        <v>468.8937833892653</v>
+        <v>496.432419906527</v>
       </c>
       <c r="T20">
-        <v>314.3318250194664</v>
+        <v>211.9022471410174</v>
       </c>
       <c r="U20">
-        <v>155.8475242559013</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V20">
-        <v>207.765807570297</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W20">
-        <v>430.1223977871429</v>
+        <v>402.2605889972995</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="B21">
         <v>0.25</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <v>40</v>
       </c>
       <c r="J21">
-        <v>534.1751599196472</v>
+        <v>677.50848939013</v>
       </c>
       <c r="K21">
-        <v>520.9526191196471</v>
+        <v>654.9683101901298</v>
       </c>
       <c r="L21">
-        <v>11.797632</v>
+        <v>20.111168</v>
       </c>
       <c r="M21">
-        <v>1.4249088</v>
+        <v>2.4290112</v>
       </c>
       <c r="N21">
-        <v>1205.450713187601</v>
+        <v>1556.650078647498</v>
       </c>
       <c r="O21">
-        <v>26.64580135441804</v>
+        <v>15.82056681216648</v>
       </c>
       <c r="P21">
-        <v>174.9859604066306</v>
+        <v>126.5625297970584</v>
       </c>
       <c r="Q21">
-        <v>18.48508747799811</v>
+        <v>20.72232567620856</v>
       </c>
       <c r="R21">
-        <v>159.5783023924301</v>
+        <v>249.8696703566272</v>
       </c>
       <c r="S21">
-        <v>412.850891428574</v>
+        <v>555.8303901488274</v>
       </c>
       <c r="T21">
-        <v>284.493637903895</v>
+        <v>459.5306919718587</v>
       </c>
       <c r="U21">
-        <v>155.8475242559013</v>
+        <v>145.7928452716496</v>
       </c>
       <c r="V21">
-        <v>207.765807570297</v>
+        <v>199.51511977905</v>
       </c>
       <c r="W21">
-        <v>425.0678906931652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22">
-        <v>700</v>
-      </c>
-      <c r="B22">
-        <v>0.25</v>
-      </c>
-      <c r="C22">
-        <v>1.5</v>
-      </c>
-      <c r="D22">
-        <v>80</v>
-      </c>
-      <c r="E22">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>1.44</v>
-      </c>
-      <c r="H22">
-        <v>16</v>
-      </c>
-      <c r="I22">
-        <v>40</v>
-      </c>
-      <c r="J22">
-        <v>619.9129795922817</v>
-      </c>
-      <c r="K22">
-        <v>606.6904387922816</v>
-      </c>
-      <c r="L22">
-        <v>11.797632</v>
-      </c>
-      <c r="M22">
-        <v>1.4249088</v>
-      </c>
-      <c r="N22">
-        <v>840.1855211587743</v>
-      </c>
-      <c r="O22">
-        <v>15.99041691547331</v>
-      </c>
-      <c r="P22">
-        <v>185.9694005780302</v>
-      </c>
-      <c r="Q22">
-        <v>10.60849968811431</v>
-      </c>
-      <c r="R22">
-        <v>158.4724233833635</v>
-      </c>
-      <c r="S22">
-        <v>167.9706610375682</v>
-      </c>
-      <c r="T22">
-        <v>173.0288514674299</v>
-      </c>
-      <c r="U22">
-        <v>155.8475242559013</v>
-      </c>
-      <c r="V22">
-        <v>207.765807570297</v>
-      </c>
-      <c r="W22">
-        <v>476.1998034255224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23">
-        <v>700</v>
-      </c>
-      <c r="B23">
-        <v>0.25</v>
-      </c>
-      <c r="C23">
-        <v>1.5</v>
-      </c>
-      <c r="D23">
-        <v>80</v>
-      </c>
-      <c r="E23">
-        <v>45</v>
-      </c>
-      <c r="F23">
-        <v>51</v>
-      </c>
-      <c r="G23">
-        <v>1.39</v>
-      </c>
-      <c r="H23">
-        <v>16</v>
-      </c>
-      <c r="I23">
-        <v>40</v>
-      </c>
-      <c r="J23">
-        <v>573.6615355352486</v>
-      </c>
-      <c r="K23">
-        <v>560.9857915352486</v>
-      </c>
-      <c r="L23">
-        <v>11.30976</v>
-      </c>
-      <c r="M23">
-        <v>1.365984</v>
-      </c>
-      <c r="N23">
-        <v>859.846228531036</v>
-      </c>
-      <c r="O23">
-        <v>14.73646079295842</v>
-      </c>
-      <c r="P23">
-        <v>172.6970895795586</v>
-      </c>
-      <c r="Q23">
-        <v>11.00854875952498</v>
-      </c>
-      <c r="R23">
-        <v>146.4860406554311</v>
-      </c>
-      <c r="S23">
-        <v>202.5370612004255</v>
-      </c>
-      <c r="T23">
-        <v>184.2357594543426</v>
-      </c>
-      <c r="U23">
-        <v>140.7655057795237</v>
-      </c>
-      <c r="V23">
-        <v>195.3913250905687</v>
-      </c>
-      <c r="W23">
-        <v>457.2879530718048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24">
-        <v>880</v>
-      </c>
-      <c r="B24">
-        <v>0.25</v>
-      </c>
-      <c r="C24">
-        <v>1.5</v>
-      </c>
-      <c r="D24">
-        <v>80</v>
-      </c>
-      <c r="E24">
-        <v>45</v>
-      </c>
-      <c r="F24">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>1.29</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <v>40</v>
-      </c>
-      <c r="J24">
-        <v>530.8594304981791</v>
-      </c>
-      <c r="K24">
-        <v>517.4380544981791</v>
-      </c>
-      <c r="L24">
-        <v>11.97504</v>
-      </c>
-      <c r="M24">
-        <v>1.446336</v>
-      </c>
-      <c r="N24">
-        <v>1234.503369298335</v>
-      </c>
-      <c r="O24">
-        <v>28.77517836894162</v>
-      </c>
-      <c r="P24">
-        <v>174.656930061687</v>
-      </c>
-      <c r="Q24">
-        <v>20.08924359596527</v>
-      </c>
-      <c r="R24">
-        <v>160.0886740090098</v>
-      </c>
-      <c r="S24">
-        <v>423.4855199227894</v>
-      </c>
-      <c r="T24">
-        <v>298.9208985115389</v>
-      </c>
-      <c r="U24">
-        <v>148.3065150177125</v>
-      </c>
-      <c r="V24">
-        <v>203.0639992226585</v>
-      </c>
-      <c r="W24">
-        <v>440.0013050645802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25">
-        <v>965</v>
-      </c>
-      <c r="B25">
-        <v>0.25</v>
-      </c>
-      <c r="C25">
-        <v>1.5</v>
-      </c>
-      <c r="D25">
-        <v>80</v>
-      </c>
-      <c r="E25">
-        <v>45</v>
-      </c>
-      <c r="F25">
-        <v>57</v>
-      </c>
-      <c r="G25">
-        <v>1.24</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>40</v>
-      </c>
-      <c r="J25">
-        <v>524.8007817151362</v>
-      </c>
-      <c r="K25">
-        <v>510.633773715136</v>
-      </c>
-      <c r="L25">
-        <v>12.64032</v>
-      </c>
-      <c r="M25">
-        <v>1.526688</v>
-      </c>
-      <c r="N25">
-        <v>1449.486959482488</v>
-      </c>
-      <c r="O25">
-        <v>37.53341079623873</v>
-      </c>
-      <c r="P25">
-        <v>153.4873470975757</v>
-      </c>
-      <c r="Q25">
-        <v>25.55828877693047</v>
-      </c>
-      <c r="R25">
-        <v>201.3278294486867</v>
-      </c>
-      <c r="S25">
-        <v>555.7991045658184</v>
-      </c>
-      <c r="T25">
-        <v>346.9080266950661</v>
-      </c>
-      <c r="U25">
-        <v>155.8475242559013</v>
-      </c>
-      <c r="V25">
-        <v>210.7378504067466</v>
-      </c>
-      <c r="W25">
-        <v>429.8812444171112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26">
-        <v>705</v>
-      </c>
-      <c r="B26">
-        <v>0.25</v>
-      </c>
-      <c r="C26">
-        <v>1.5</v>
-      </c>
-      <c r="D26">
-        <v>85</v>
-      </c>
-      <c r="E26">
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <v>51</v>
-      </c>
-      <c r="G26">
-        <v>1.44</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>40</v>
-      </c>
-      <c r="J26">
-        <v>552.1227503817933</v>
-      </c>
-      <c r="K26">
-        <v>540.4505027817933</v>
-      </c>
-      <c r="L26">
-        <v>10.414404</v>
-      </c>
-      <c r="M26">
-        <v>1.2578436</v>
-      </c>
-      <c r="N26">
-        <v>975.0844549010538</v>
-      </c>
-      <c r="O26">
-        <v>14.96237374720132</v>
-      </c>
-      <c r="P26">
-        <v>172.0348425491602</v>
-      </c>
-      <c r="Q26">
-        <v>10.51820648236425</v>
-      </c>
-      <c r="R26">
-        <v>155.3700119618798</v>
-      </c>
-      <c r="S26">
-        <v>247.5929813223374</v>
-      </c>
-      <c r="T26">
-        <v>246.4558177707341</v>
-      </c>
-      <c r="U26">
-        <v>140.7655057795237</v>
-      </c>
-      <c r="V26">
-        <v>189.44425933701</v>
-      </c>
-      <c r="W26">
-        <v>432.9194091335009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27">
-        <v>960</v>
-      </c>
-      <c r="B27">
-        <v>0.25</v>
-      </c>
-      <c r="C27">
-        <v>1.5</v>
-      </c>
-      <c r="D27">
-        <v>85</v>
-      </c>
-      <c r="E27">
-        <v>42</v>
-      </c>
-      <c r="F27">
-        <v>60</v>
-      </c>
-      <c r="G27">
-        <v>1.24</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>40</v>
-      </c>
-      <c r="J27">
-        <v>527.2057582910821</v>
-      </c>
-      <c r="K27">
-        <v>512.417390291082</v>
-      </c>
-      <c r="L27">
-        <v>13.19472</v>
-      </c>
-      <c r="M27">
-        <v>1.593648</v>
-      </c>
-      <c r="N27">
-        <v>1444.985041313913</v>
-      </c>
-      <c r="O27">
-        <v>37.05453633989393</v>
-      </c>
-      <c r="P27">
-        <v>153.6160144979176</v>
-      </c>
-      <c r="Q27">
-        <v>25.20227321587132</v>
-      </c>
-      <c r="R27">
-        <v>201.3596621197506</v>
-      </c>
-      <c r="S27">
-        <v>525.352039622377</v>
-      </c>
-      <c r="T27">
-        <v>373.5573613497105</v>
-      </c>
-      <c r="U27">
-        <v>163.3885334940901</v>
-      </c>
-      <c r="V27">
-        <v>215.4415820967995</v>
-      </c>
-      <c r="W27">
-        <v>425.3286484033993</v>
+        <v>381.1826618429131</v>
       </c>
     </row>
   </sheetData>
